--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -24,7 +24,7 @@
     <t>update</t>
   </si>
   <si>
-    <t>28th June 2024</t>
+    <t>1st July 2024</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -24,7 +24,7 @@
     <t>update</t>
   </si>
   <si>
-    <t>1st July 2024</t>
+    <t>3rd July 2024</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D199E-7B4E-4C80-A999-DFA5AA3C53E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
     <t>update</t>
   </si>
   <si>
-    <t>3rd July 2024</t>
+    <t>17th July 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,7 +66,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,14 +343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>

--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D199E-7B4E-4C80-A999-DFA5AA3C53E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1768B1B6-9EE4-4C4E-B311-DF837A9A873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>update</t>
   </si>
   <si>
-    <t>17th July 2024</t>
+    <t>21st July 2024</t>
   </si>
 </sst>
 </file>

--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1768B1B6-9EE4-4C4E-B311-DF837A9A873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B38476-38EB-4904-8FD3-268BF32EDE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>update</t>
   </si>
   <si>
-    <t>21st July 2024</t>
+    <t>30th July 2024</t>
   </si>
 </sst>
 </file>

--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B38476-38EB-4904-8FD3-268BF32EDE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E841D83-5FAB-4A58-8021-9F82C7391F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>update</t>
   </si>
   <si>
-    <t>30th July 2024</t>
+    <t>8th August 2024</t>
   </si>
 </sst>
 </file>

--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E841D83-5FAB-4A58-8021-9F82C7391F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A539DE-EF17-4A2A-884D-0BEAD4385C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>update</t>
   </si>
   <si>
-    <t>8th August 2024</t>
+    <t>13th August 2024</t>
   </si>
 </sst>
 </file>

--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A539DE-EF17-4A2A-884D-0BEAD4385C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C358C39-6B8B-4E9A-ACEB-267CFC5DF90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>update</t>
   </si>
   <si>
-    <t>13th August 2024</t>
+    <t>20th August 2024</t>
   </si>
 </sst>
 </file>

--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C358C39-6B8B-4E9A-ACEB-267CFC5DF90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BD0112-54A7-47A1-AF7C-D4B97A53F1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>update</t>
   </si>
   <si>
-    <t>20th August 2024</t>
+    <t>23rd August 2024</t>
   </si>
 </sst>
 </file>

--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BD0112-54A7-47A1-AF7C-D4B97A53F1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7392E37-CCD2-45A4-8417-4BFDB586043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>update</t>
   </si>
   <si>
-    <t>23rd August 2024</t>
+    <t>28th August 2024</t>
   </si>
 </sst>
 </file>

--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7392E37-CCD2-45A4-8417-4BFDB586043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D92435-B78A-431E-939B-A7B3865E75FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>update</t>
   </si>
   <si>
-    <t>28th August 2024</t>
+    <t>31st August 2024</t>
   </si>
 </sst>
 </file>

--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D92435-B78A-431E-939B-A7B3865E75FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E12E2A-EC41-48A7-BC8A-12D5C72B54C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>update</t>
   </si>
   <si>
-    <t>31st August 2024</t>
+    <t>4th September 2024</t>
   </si>
 </sst>
 </file>

--- a/data/program_update.xlsx
+++ b/data/program_update.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E12E2A-EC41-48A7-BC8A-12D5C72B54C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1CFFA1-7134-4ACA-AE61-9A17A7AC045E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="45" windowWidth="25755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>update</t>
   </si>
   <si>
-    <t>4th September 2024</t>
+    <t>9th September 2024</t>
   </si>
 </sst>
 </file>
